--- a/Finance_Data/2019/Nov_2019.xlsx
+++ b/Finance_Data/2019/Nov_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\Finance_Data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1002A54-D956-480A-A265-586E548A8EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8393888-2223-4BBF-BDBD-FC6EE587B8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-660" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16275" yWindow="345" windowWidth="13575" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Bought Ferrero Rocher for Masi</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Paid G-pa's phone bill (included 500MB data plan)</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Bake Chef</t>
+  </si>
+  <si>
+    <t>Sunridge Mall Kiosk</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
         <v>43785</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1083,7 +1083,7 @@
         <v>-36.75</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>-5.76</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>43770</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>-21.89</v>
@@ -1122,10 +1122,10 @@
         <v>43770</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>-6.39</v>
@@ -1136,10 +1136,10 @@
         <v>43773</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>-11.5</v>
@@ -1150,10 +1150,10 @@
         <v>43775</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>-10.49</v>
@@ -1164,10 +1164,10 @@
         <v>43776</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42">
         <v>-10.49</v>
@@ -1178,10 +1178,10 @@
         <v>43777</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>-11.5</v>
@@ -1192,10 +1192,10 @@
         <v>43781</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>-25.18</v>
@@ -1206,10 +1206,10 @@
         <v>43788</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>-7.21</v>
@@ -1220,10 +1220,10 @@
         <v>43788</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>-10.49</v>
@@ -1234,10 +1234,10 @@
         <v>43789</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>-10.49</v>
@@ -1248,10 +1248,10 @@
         <v>43790</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>-10.49</v>
@@ -1262,10 +1262,10 @@
         <v>43791</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>-10.49</v>
@@ -1276,10 +1276,10 @@
         <v>43791</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>-7.21</v>
@@ -1290,10 +1290,10 @@
         <v>43794</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>-18.350000000000001</v>
@@ -1304,10 +1304,10 @@
         <v>43795</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>-10.49</v>
@@ -1318,10 +1318,10 @@
         <v>43797</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>-10.49</v>
@@ -1332,10 +1332,10 @@
         <v>43798</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>-11.7</v>
@@ -1346,27 +1346,27 @@
         <v>43799</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <v>-32.6</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
         <v>44</v>
       </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <v>-32</v>
